--- a/src/thai_business_nlp/data/keywords.xlsx
+++ b/src/thai_business_nlp/data/keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\thai-business-nlp\src\thai_business_nlp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E995658-D649-48E8-B331-8A084A57EC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B562B261-265A-4F0D-9080-3D6578CDBC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SectorKeyword" sheetId="3" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="32">
-  <si>
-    <t>สิทธิมนุษยชน</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t>ESG</t>
   </si>
@@ -59,76 +56,154 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>ชีวมวล</t>
-  </si>
-  <si>
     <t>Consumer Products</t>
   </si>
   <si>
-    <t>Migrant Worker</t>
-  </si>
-  <si>
-    <t>การสรรหาแรงงานข้ามชาติ</t>
-  </si>
-  <si>
-    <t>Human Rights</t>
-  </si>
-  <si>
-    <t>Safety</t>
-  </si>
-  <si>
-    <t>ซ้อมความปลอดภัย</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>สุขภาพพนักงาน</t>
-  </si>
-  <si>
-    <t>ความปลอดภัย</t>
-  </si>
-  <si>
-    <t>Personal</t>
-  </si>
-  <si>
-    <t>ป้องกันส่วนบุคคล</t>
-  </si>
-  <si>
-    <t>Grievance</t>
-  </si>
-  <si>
-    <t>ช่องทางร้องเรียน</t>
-  </si>
-  <si>
-    <t>Equal Opportunity</t>
-  </si>
-  <si>
-    <t>เท่าเทียม</t>
-  </si>
-  <si>
-    <t>Supply Chain</t>
-  </si>
-  <si>
-    <t>ห่วงโซ่อุปทาน</t>
-  </si>
-  <si>
-    <t>Whistleblowing</t>
-  </si>
-  <si>
-    <t>แจ้งเบาะแส</t>
-  </si>
-  <si>
-    <t>Third-Party</t>
-  </si>
-  <si>
-    <t>โดยบุคคลที่สาม</t>
-  </si>
-  <si>
     <t>Financials</t>
+  </si>
+  <si>
+    <t>Renewable Materials</t>
+  </si>
+  <si>
+    <t>วัสดุทดแทนและยั่งยืน</t>
+  </si>
+  <si>
+    <t>Carbon Footprint Reduction</t>
+  </si>
+  <si>
+    <t>การลดการปล่อยคาร์บอน</t>
+  </si>
+  <si>
+    <t>Waste Minimization</t>
+  </si>
+  <si>
+    <t>การลดของเสีย</t>
+  </si>
+  <si>
+    <t>Fair Labor Practices</t>
+  </si>
+  <si>
+    <t>แนวปฏิบัติแรงงานที่เป็นธรรม</t>
+  </si>
+  <si>
+    <t>Community Engagement</t>
+  </si>
+  <si>
+    <t>การมีส่วนร่วมกับชุมชน</t>
+  </si>
+  <si>
+    <t>Employee Development</t>
+  </si>
+  <si>
+    <t>การพัฒนาศักยภาพพนักงาน</t>
+  </si>
+  <si>
+    <t>Diversity &amp; Inclusion</t>
+  </si>
+  <si>
+    <t>ความหลากหลายและการมีส่วนร่วม</t>
+  </si>
+  <si>
+    <t>Product Responsibility</t>
+  </si>
+  <si>
+    <t>ความรับผิดชอบต่อผลิตภัณฑ์</t>
+  </si>
+  <si>
+    <t>Ethical Sourcing</t>
+  </si>
+  <si>
+    <t>การจัดหาวัตถุดิบอย่างมีจริยธรรม</t>
+  </si>
+  <si>
+    <t>Anti-Corruption</t>
+  </si>
+  <si>
+    <t>การป้องกันทุจริต</t>
+  </si>
+  <si>
+    <t>Data Privacy</t>
+  </si>
+  <si>
+    <t>การคุ้มครองข้อมูลส่วนบุคคล</t>
+  </si>
+  <si>
+    <t>Supplier Audit</t>
+  </si>
+  <si>
+    <t>การตรวจประเมินซัพพลายเออร์</t>
+  </si>
+  <si>
+    <t>Green Financing</t>
+  </si>
+  <si>
+    <t>สินเชื่อเพื่อสิ่งแวดล้อม</t>
+  </si>
+  <si>
+    <t>Sustainable Investment</t>
+  </si>
+  <si>
+    <t>การลงทุนอย่างยั่งยืน</t>
+  </si>
+  <si>
+    <t>Energy Efficiency</t>
+  </si>
+  <si>
+    <t>ประสิทธิภาพการใช้พลังงาน</t>
+  </si>
+  <si>
+    <t>Employee Well-Being</t>
+  </si>
+  <si>
+    <t>ความเป็นอยู่ที่ดีของพนักงาน</t>
+  </si>
+  <si>
+    <t>Responsible Lending</t>
+  </si>
+  <si>
+    <t>การปล่อยสินเชื่ออย่างรับผิดชอบ</t>
+  </si>
+  <si>
+    <t>Client Transparency</t>
+  </si>
+  <si>
+    <t>ความโปร่งใสต่อผู้ใช้บริการ</t>
+  </si>
+  <si>
+    <t>Workforce Diversity</t>
+  </si>
+  <si>
+    <t>ความหลากหลายของบุคลากร</t>
+  </si>
+  <si>
+    <t>Risk Governance</t>
+  </si>
+  <si>
+    <t>การกำกับดูแลความเสี่ยง</t>
+  </si>
+  <si>
+    <t>Compliance Management</t>
+  </si>
+  <si>
+    <t>การจัดการด้านกฎหมายและข้อกำกับ</t>
+  </si>
+  <si>
+    <t>Ethical Conduct</t>
+  </si>
+  <si>
+    <t>การประพฤติอย่างมีจริยธรรม</t>
+  </si>
+  <si>
+    <t>Board Independence</t>
+  </si>
+  <si>
+    <t>ความเป็นอิสระของคณะกรรมการบริษัท</t>
+  </si>
+  <si>
+    <t>Fraud Prevention</t>
+  </si>
+  <si>
+    <t>การป้องกันการฉ้อโกง</t>
   </si>
 </sst>
 </file>
@@ -172,9 +247,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,360 +559,360 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FF38A0-8F40-4439-8274-52717CB5B324}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
